--- a/data/pca/factorExposure/factorExposure_2017-09-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-09-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02347839854516261</v>
+        <v>-0.0070450922030925</v>
       </c>
       <c r="C2">
-        <v>-0.0002376435469116934</v>
+        <v>-0.03958676095233061</v>
       </c>
       <c r="D2">
-        <v>-0.01469521034221294</v>
+        <v>-0.02967361414331622</v>
       </c>
       <c r="E2">
-        <v>0.007963283830591439</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03218670447917871</v>
+      </c>
+      <c r="F2">
+        <v>0.02666616085363972</v>
+      </c>
+      <c r="G2">
+        <v>0.03537285596488016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0136079198562602</v>
+        <v>-0.05128726384959937</v>
       </c>
       <c r="C3">
-        <v>0.04539103876795637</v>
+        <v>-0.07647849557860728</v>
       </c>
       <c r="D3">
-        <v>-0.009518358107783013</v>
+        <v>-0.0154044259319218</v>
       </c>
       <c r="E3">
-        <v>0.002013155467376194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09074298257401718</v>
+      </c>
+      <c r="F3">
+        <v>0.06191536044894373</v>
+      </c>
+      <c r="G3">
+        <v>0.08211217220038126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02221033102477318</v>
+        <v>-0.05450694104194072</v>
       </c>
       <c r="C4">
-        <v>0.0155177536026134</v>
+        <v>-0.06121510749204836</v>
       </c>
       <c r="D4">
-        <v>-0.05932486275765211</v>
+        <v>-0.023444534558282</v>
       </c>
       <c r="E4">
-        <v>-0.0179345365917212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01803442522335252</v>
+      </c>
+      <c r="F4">
+        <v>0.01304556076734689</v>
+      </c>
+      <c r="G4">
+        <v>0.05593701201776898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01504894591013616</v>
+        <v>-0.03509515495965822</v>
       </c>
       <c r="C6">
-        <v>0.0162266402439285</v>
+        <v>-0.04965370605696397</v>
       </c>
       <c r="D6">
-        <v>-0.07847505055845162</v>
+        <v>-0.01583291732689131</v>
       </c>
       <c r="E6">
-        <v>-0.01017358824840112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01718154888848698</v>
+      </c>
+      <c r="F6">
+        <v>0.01390736155020878</v>
+      </c>
+      <c r="G6">
+        <v>0.03529065746668471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.009889506286064878</v>
+        <v>-0.01417753851140682</v>
       </c>
       <c r="C7">
-        <v>0.0004425940782738645</v>
+        <v>-0.03634100369938374</v>
       </c>
       <c r="D7">
-        <v>-0.03065473455385676</v>
+        <v>-0.01346613533517196</v>
       </c>
       <c r="E7">
-        <v>-0.07306680463093197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.007855468667071571</v>
+      </c>
+      <c r="F7">
+        <v>0.009529226034578736</v>
+      </c>
+      <c r="G7">
+        <v>0.09084643398317781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0002207714509873141</v>
+        <v>0.002207878024466954</v>
       </c>
       <c r="C8">
-        <v>-0.004089729829219969</v>
+        <v>-0.01824503723155604</v>
       </c>
       <c r="D8">
-        <v>-0.006283454304154273</v>
+        <v>-0.00413160579927928</v>
       </c>
       <c r="E8">
-        <v>-0.007678555397229545</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02339271921335446</v>
+      </c>
+      <c r="F8">
+        <v>0.02454487682339214</v>
+      </c>
+      <c r="G8">
+        <v>0.02716997839653778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01484099662164047</v>
+        <v>-0.02993435453695033</v>
       </c>
       <c r="C9">
-        <v>0.01456895296608914</v>
+        <v>-0.04262152878013351</v>
       </c>
       <c r="D9">
-        <v>-0.04459644557670389</v>
+        <v>-0.01628979540431019</v>
       </c>
       <c r="E9">
-        <v>-0.008595288507903769</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01414555102610164</v>
+      </c>
+      <c r="F9">
+        <v>0.01884870288296047</v>
+      </c>
+      <c r="G9">
+        <v>0.04768398781207524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01304880305753408</v>
+        <v>-0.0920278523024918</v>
       </c>
       <c r="C10">
-        <v>0.1631211944446492</v>
+        <v>0.1854263528953439</v>
       </c>
       <c r="D10">
-        <v>0.119916865439756</v>
+        <v>0.01770702907885245</v>
       </c>
       <c r="E10">
-        <v>-0.00960713489819684</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01158689503664178</v>
+      </c>
+      <c r="F10">
+        <v>-0.01482765677353382</v>
+      </c>
+      <c r="G10">
+        <v>0.04702860717688318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0001999018442566086</v>
+        <v>-0.03071163950777632</v>
       </c>
       <c r="C11">
-        <v>0.005053651413507269</v>
+        <v>-0.05358980250822172</v>
       </c>
       <c r="D11">
-        <v>-0.04322376360503174</v>
+        <v>-0.002444088306154667</v>
       </c>
       <c r="E11">
-        <v>0.006841244103795842</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.007622278294603211</v>
+      </c>
+      <c r="F11">
+        <v>0.02538520463122454</v>
+      </c>
+      <c r="G11">
+        <v>0.0297271908834852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005678091491146501</v>
+        <v>-0.03090970136783904</v>
       </c>
       <c r="C12">
-        <v>0.01333833299476365</v>
+        <v>-0.04567071931259659</v>
       </c>
       <c r="D12">
-        <v>-0.04554142157352056</v>
+        <v>-0.006364324870269045</v>
       </c>
       <c r="E12">
-        <v>-0.002072970780255578</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.00066558306729653</v>
+      </c>
+      <c r="F12">
+        <v>0.009919150459747367</v>
+      </c>
+      <c r="G12">
+        <v>0.03269317427291742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0212911726238091</v>
+        <v>-0.01404122263877833</v>
       </c>
       <c r="C13">
-        <v>0.01083629137941935</v>
+        <v>-0.03111815223545672</v>
       </c>
       <c r="D13">
-        <v>-0.01269613473975974</v>
+        <v>-0.0251419780671508</v>
       </c>
       <c r="E13">
-        <v>0.005670970516771822</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02359516118664041</v>
+      </c>
+      <c r="F13">
+        <v>0.01806001420324454</v>
+      </c>
+      <c r="G13">
+        <v>0.04499427417690732</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007028084898449203</v>
+        <v>-0.007252267559374967</v>
       </c>
       <c r="C14">
-        <v>0.0112998606474416</v>
+        <v>-0.0260094324849864</v>
       </c>
       <c r="D14">
-        <v>-0.01501075737826179</v>
+        <v>-0.008781229205926907</v>
       </c>
       <c r="E14">
-        <v>-0.0128115747119964</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.004436471347681809</v>
+      </c>
+      <c r="F14">
+        <v>0.0008359128442938611</v>
+      </c>
+      <c r="G14">
+        <v>0.04941725322194027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0008192859438635675</v>
+        <v>-0.0302015130720603</v>
       </c>
       <c r="C16">
-        <v>0.01204108809807051</v>
+        <v>-0.04452632794545111</v>
       </c>
       <c r="D16">
-        <v>-0.04634578478890028</v>
+        <v>-0.001902695359681655</v>
       </c>
       <c r="E16">
-        <v>-0.0004433714509055223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.007585310739069363</v>
+      </c>
+      <c r="F16">
+        <v>0.01298296882626347</v>
+      </c>
+      <c r="G16">
+        <v>0.03103256496285074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01300867256570275</v>
+        <v>-0.02374452163787967</v>
       </c>
       <c r="C19">
-        <v>0.02212459012804062</v>
+        <v>-0.04716989336853426</v>
       </c>
       <c r="D19">
-        <v>-0.02099282933642148</v>
+        <v>-0.01655070592294195</v>
       </c>
       <c r="E19">
-        <v>-0.006678487465637076</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.0565166685518349</v>
+      </c>
+      <c r="F19">
+        <v>0.03262194807651553</v>
+      </c>
+      <c r="G19">
+        <v>0.0565053717968653</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01010663566393346</v>
+        <v>-0.011370706101579</v>
       </c>
       <c r="C20">
-        <v>0.004173721221527506</v>
+        <v>-0.03356166353054985</v>
       </c>
       <c r="D20">
-        <v>-0.0106785487148246</v>
+        <v>-0.0133237942347728</v>
       </c>
       <c r="E20">
-        <v>-0.0006364438948339357</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02451888134269796</v>
+      </c>
+      <c r="F20">
+        <v>0.002826338535433552</v>
+      </c>
+      <c r="G20">
+        <v>0.04635929595148171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01409257573418128</v>
+        <v>-0.01351663148476744</v>
       </c>
       <c r="C21">
-        <v>0.02812569066635601</v>
+        <v>-0.03579567492631374</v>
       </c>
       <c r="D21">
-        <v>-0.02003009991783509</v>
+        <v>-0.01670436438745425</v>
       </c>
       <c r="E21">
-        <v>-0.02035125127285329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03122402143492571</v>
+      </c>
+      <c r="F21">
+        <v>0.00994682998648125</v>
+      </c>
+      <c r="G21">
+        <v>0.06852025965902027</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004696000648390298</v>
+        <v>-0.02372318096184701</v>
       </c>
       <c r="C24">
-        <v>0.0034692364763568</v>
+        <v>-0.04742881411907807</v>
       </c>
       <c r="D24">
-        <v>-0.0425656558524368</v>
+        <v>-0.007325122958896074</v>
       </c>
       <c r="E24">
-        <v>0.001418428512837123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.00367331746452217</v>
+      </c>
+      <c r="F24">
+        <v>0.02258080467595105</v>
+      </c>
+      <c r="G24">
+        <v>0.03236395368533492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01132490061859691</v>
+        <v>-0.03862299544349435</v>
       </c>
       <c r="C25">
-        <v>0.02017621607447006</v>
+        <v>-0.05505952526966946</v>
       </c>
       <c r="D25">
-        <v>-0.04288681346349368</v>
+        <v>-0.01148254587101766</v>
       </c>
       <c r="E25">
-        <v>0.0003987934283776403</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.003227896427180603</v>
+      </c>
+      <c r="F25">
+        <v>0.01886215799992445</v>
+      </c>
+      <c r="G25">
+        <v>0.03896648225776981</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02249918981357074</v>
+        <v>-0.01154952083176843</v>
       </c>
       <c r="C26">
-        <v>0.00828305519253728</v>
+        <v>-0.008312183355259939</v>
       </c>
       <c r="D26">
-        <v>0.007946664081901596</v>
+        <v>-0.02357573171737206</v>
       </c>
       <c r="E26">
-        <v>-0.009756431167864293</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.003728159005363583</v>
+      </c>
+      <c r="F26">
+        <v>0.002612008700201924</v>
+      </c>
+      <c r="G26">
+        <v>0.03669066871631398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.03250925225193464</v>
+        <v>-0.1176104108268323</v>
       </c>
       <c r="C28">
-        <v>0.2398571620641846</v>
+        <v>0.228229682381097</v>
       </c>
       <c r="D28">
-        <v>0.167830708051876</v>
+        <v>0.008639577958438447</v>
       </c>
       <c r="E28">
-        <v>-0.01684518668382212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.0007922901389283066</v>
+      </c>
+      <c r="F28">
+        <v>-0.01273397658874114</v>
+      </c>
+      <c r="G28">
+        <v>0.0635988795983357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007232509073965387</v>
+        <v>-0.01071674109450196</v>
       </c>
       <c r="C29">
-        <v>0.01619750134184464</v>
+        <v>-0.01981742829234285</v>
       </c>
       <c r="D29">
-        <v>-0.01197721411426265</v>
+        <v>-0.007518118339943037</v>
       </c>
       <c r="E29">
-        <v>-0.007791631162396536</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.006830130759837913</v>
+      </c>
+      <c r="F29">
+        <v>-0.008160907587580262</v>
+      </c>
+      <c r="G29">
+        <v>0.04011319369334418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02279881254233327</v>
+        <v>-0.04225892387552639</v>
       </c>
       <c r="C30">
-        <v>-0.001739196116315395</v>
+        <v>-0.06506890321102694</v>
       </c>
       <c r="D30">
-        <v>-0.06525314226366823</v>
+        <v>-0.02797118988082828</v>
       </c>
       <c r="E30">
-        <v>0.05482267303742363</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.04289791001832564</v>
+      </c>
+      <c r="F30">
+        <v>0.05458927823825292</v>
+      </c>
+      <c r="G30">
+        <v>0.01763933661416608</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.007773843529264785</v>
+        <v>-0.04900437283644789</v>
       </c>
       <c r="C31">
-        <v>0.04266737844687411</v>
+        <v>-0.03303612018207412</v>
       </c>
       <c r="D31">
-        <v>-0.04374407117988779</v>
+        <v>-0.00368036096058624</v>
       </c>
       <c r="E31">
-        <v>-0.009680208965707199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.003002723818876051</v>
+      </c>
+      <c r="F31">
+        <v>-0.02764430824780344</v>
+      </c>
+      <c r="G31">
+        <v>0.03997945916973891</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006894881690703028</v>
+        <v>0.00159446218515166</v>
       </c>
       <c r="C32">
-        <v>0.0189713986538431</v>
+        <v>-0.03122729790670678</v>
       </c>
       <c r="D32">
-        <v>0.0004910088240874255</v>
+        <v>0.004007310919369939</v>
       </c>
       <c r="E32">
-        <v>-0.02929451702391644</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01318761124228745</v>
+      </c>
+      <c r="F32">
+        <v>0.05201993493113517</v>
+      </c>
+      <c r="G32">
+        <v>0.05909128719068544</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01222289037932921</v>
+        <v>-0.02626501907428575</v>
       </c>
       <c r="C33">
-        <v>0.02046144010653772</v>
+        <v>-0.0467349354782024</v>
       </c>
       <c r="D33">
-        <v>-0.02234966180845832</v>
+        <v>-0.01481237138896522</v>
       </c>
       <c r="E33">
-        <v>0.02202342186059702</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02833169787334128</v>
+      </c>
+      <c r="F33">
+        <v>0.03123054290116633</v>
+      </c>
+      <c r="G33">
+        <v>0.04739470169433003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004807339616164598</v>
+        <v>-0.03870225030623491</v>
       </c>
       <c r="C34">
-        <v>0.01810116141676576</v>
+        <v>-0.05654646244308242</v>
       </c>
       <c r="D34">
-        <v>-0.04787479587438538</v>
+        <v>0.004388381020354023</v>
       </c>
       <c r="E34">
-        <v>-0.007832599467947194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.003143898757949265</v>
+      </c>
+      <c r="F34">
+        <v>0.0283697752876591</v>
+      </c>
+      <c r="G34">
+        <v>0.04406185707066755</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01195506224815595</v>
+        <v>-0.01112448131342428</v>
       </c>
       <c r="C36">
-        <v>0.01806530486746769</v>
+        <v>-0.007403354985367579</v>
       </c>
       <c r="D36">
-        <v>-0.001245895569398752</v>
+        <v>-0.01155052393163017</v>
       </c>
       <c r="E36">
-        <v>-0.004074004682562362</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0006594735621575402</v>
+      </c>
+      <c r="F36">
+        <v>-0.00254549365195559</v>
+      </c>
+      <c r="G36">
+        <v>0.03232188937236682</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006037575738518566</v>
+        <v>-0.03151910367564426</v>
       </c>
       <c r="C38">
-        <v>0.02790181586484494</v>
+        <v>-0.02767943883133362</v>
       </c>
       <c r="D38">
-        <v>-0.02180210550433475</v>
+        <v>0.007574726392981196</v>
       </c>
       <c r="E38">
-        <v>-0.005566418196933261</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.005709916245382082</v>
+      </c>
+      <c r="F38">
+        <v>-0.003172241350408993</v>
+      </c>
+      <c r="G38">
+        <v>0.04167820460038069</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005591632148541015</v>
+        <v>-0.03064346098304593</v>
       </c>
       <c r="C39">
-        <v>-0.01925322634087675</v>
+        <v>-0.08061772833174009</v>
       </c>
       <c r="D39">
-        <v>-0.08975432128385245</v>
+        <v>-0.01243197960879666</v>
       </c>
       <c r="E39">
-        <v>0.004501363230090372</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02376233546758844</v>
+      </c>
+      <c r="F39">
+        <v>0.04223926940470627</v>
+      </c>
+      <c r="G39">
+        <v>0.03336234883888923</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01008392570123403</v>
+        <v>-0.01845139257260111</v>
       </c>
       <c r="C40">
-        <v>0.009657369432986668</v>
+        <v>-0.03183341529741207</v>
       </c>
       <c r="D40">
-        <v>-0.03685342304441059</v>
+        <v>-0.01336665472514476</v>
       </c>
       <c r="E40">
-        <v>0.002410986979096032</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01947547307298469</v>
+      </c>
+      <c r="F40">
+        <v>0.02138693959110331</v>
+      </c>
+      <c r="G40">
+        <v>0.03293347747509041</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005225770892954613</v>
+        <v>-0.01084121610939098</v>
       </c>
       <c r="C41">
-        <v>0.02011588743396047</v>
+        <v>0.0004680818497168115</v>
       </c>
       <c r="D41">
-        <v>0.01130965647714473</v>
+        <v>-0.004007431593305908</v>
       </c>
       <c r="E41">
-        <v>-0.003646738035006215</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0007310187153133924</v>
+      </c>
+      <c r="F41">
+        <v>0.004029492000871952</v>
+      </c>
+      <c r="G41">
+        <v>0.02296197422001203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09335697124677032</v>
+        <v>-0.01513353191617191</v>
       </c>
       <c r="C42">
-        <v>-0.01024425325361966</v>
+        <v>-0.04371377090625919</v>
       </c>
       <c r="D42">
-        <v>-0.2751635441253709</v>
+        <v>-0.09524121497437714</v>
       </c>
       <c r="E42">
-        <v>0.2710043680157602</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.03867827991639276</v>
+      </c>
+      <c r="F42">
+        <v>-0.05005859174936233</v>
+      </c>
+      <c r="G42">
+        <v>-0.1583590422012869</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.006250536630007926</v>
+        <v>-0.0280112280032232</v>
       </c>
       <c r="C43">
-        <v>0.02161785540308187</v>
+        <v>-0.0101319502499249</v>
       </c>
       <c r="D43">
-        <v>0.01637463898471606</v>
+        <v>-0.004759243734474375</v>
       </c>
       <c r="E43">
-        <v>0.001848152996153113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.008299630127359842</v>
+      </c>
+      <c r="F43">
+        <v>0.003094399771833972</v>
+      </c>
+      <c r="G43">
+        <v>0.03347318825359458</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002949163032230557</v>
+        <v>-0.01281857923481878</v>
       </c>
       <c r="C44">
-        <v>0.001813780817447284</v>
+        <v>-0.04916041010003118</v>
       </c>
       <c r="D44">
-        <v>-0.02527410373514134</v>
+        <v>-0.006653711607937147</v>
       </c>
       <c r="E44">
-        <v>-0.004400238591202497</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.0174037297331611</v>
+      </c>
+      <c r="F44">
+        <v>0.008886046294854557</v>
+      </c>
+      <c r="G44">
+        <v>0.04986847476787216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01048514747146981</v>
+        <v>-0.004543465827608775</v>
       </c>
       <c r="C46">
-        <v>0.0159332962233361</v>
+        <v>-0.01679892112382199</v>
       </c>
       <c r="D46">
-        <v>-0.01037850681534921</v>
+        <v>-0.01165998390294512</v>
       </c>
       <c r="E46">
-        <v>-0.003207870055782158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.004209915333884281</v>
+      </c>
+      <c r="F46">
+        <v>-0.01125595033553332</v>
+      </c>
+      <c r="G46">
+        <v>0.03675881617128794</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.001767879465269354</v>
+        <v>-0.07501094468538658</v>
       </c>
       <c r="C47">
-        <v>0.05411766199753053</v>
+        <v>-0.06506125627347202</v>
       </c>
       <c r="D47">
-        <v>-0.05640818861414868</v>
+        <v>0.004795981444488622</v>
       </c>
       <c r="E47">
-        <v>0.0001626171760244179</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.007980246732497805</v>
+      </c>
+      <c r="F47">
+        <v>-0.04844937522548818</v>
+      </c>
+      <c r="G47">
+        <v>0.03770100746502467</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002818882684321208</v>
+        <v>-0.01994039795131512</v>
       </c>
       <c r="C48">
-        <v>0.02600300222583019</v>
+        <v>-0.009598239275837561</v>
       </c>
       <c r="D48">
-        <v>-0.01115388024810132</v>
+        <v>-0.0009240810079993397</v>
       </c>
       <c r="E48">
-        <v>-0.003164570731423978</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.003154234345460113</v>
+      </c>
+      <c r="F48">
+        <v>-0.01106179238294121</v>
+      </c>
+      <c r="G48">
+        <v>0.03848031084479332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.002714976852385528</v>
+        <v>-0.07905460660999103</v>
       </c>
       <c r="C50">
-        <v>0.04441565062769606</v>
+        <v>-0.06686036723520335</v>
       </c>
       <c r="D50">
-        <v>-0.06156646411229302</v>
+        <v>0.00311403393443509</v>
       </c>
       <c r="E50">
-        <v>-0.02676856410772947</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01052943930833629</v>
+      </c>
+      <c r="F50">
+        <v>-0.04825091425297943</v>
+      </c>
+      <c r="G50">
+        <v>0.06229651673160379</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007109306415448772</v>
+        <v>-0.01008255302653228</v>
       </c>
       <c r="C51">
-        <v>0.01865320641886215</v>
+        <v>-0.02707222592839534</v>
       </c>
       <c r="D51">
-        <v>0.01348996511580246</v>
+        <v>-0.009467761864644072</v>
       </c>
       <c r="E51">
-        <v>-0.01042405710504924</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01217465228449794</v>
+      </c>
+      <c r="F51">
+        <v>0.02520366946474023</v>
+      </c>
+      <c r="G51">
+        <v>0.06363767726423525</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.004792729914007465</v>
+        <v>-0.08254406377923459</v>
       </c>
       <c r="C53">
-        <v>0.06881835761391047</v>
+        <v>-0.08153487523462544</v>
       </c>
       <c r="D53">
-        <v>-0.1170456536377836</v>
+        <v>0.004073331865468234</v>
       </c>
       <c r="E53">
-        <v>-0.009166906287408063</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03118587264176804</v>
+      </c>
+      <c r="F53">
+        <v>-0.05371673327632825</v>
+      </c>
+      <c r="G53">
+        <v>0.04055940061809021</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0006177056718678363</v>
+        <v>-0.03046655827069054</v>
       </c>
       <c r="C54">
-        <v>0.03467545606242115</v>
+        <v>-0.01013827283653454</v>
       </c>
       <c r="D54">
-        <v>0.009129853672690636</v>
+        <v>0.002907593032664242</v>
       </c>
       <c r="E54">
-        <v>-0.01176374307927435</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.001592131580458976</v>
+      </c>
+      <c r="F54">
+        <v>-0.0007329398046975218</v>
+      </c>
+      <c r="G54">
+        <v>0.04231277774969869</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.00213227580814551</v>
+        <v>-0.07006619858898452</v>
       </c>
       <c r="C55">
-        <v>0.04961324620728418</v>
+        <v>-0.07242389455927271</v>
       </c>
       <c r="D55">
-        <v>-0.1012021323572744</v>
+        <v>0.004444177515242727</v>
       </c>
       <c r="E55">
-        <v>0.003311820136056064</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02270200182233101</v>
+      </c>
+      <c r="F55">
+        <v>-0.05125789436895626</v>
+      </c>
+      <c r="G55">
+        <v>0.02188485907846521</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.002295339581012044</v>
+        <v>-0.1411934825340187</v>
       </c>
       <c r="C56">
-        <v>0.09289081385414825</v>
+        <v>-0.1060189833673206</v>
       </c>
       <c r="D56">
-        <v>-0.1493394230117724</v>
+        <v>0.01289746983595409</v>
       </c>
       <c r="E56">
-        <v>0.0006892556227900206</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03724033416391068</v>
+      </c>
+      <c r="F56">
+        <v>-0.07959653252745491</v>
+      </c>
+      <c r="G56">
+        <v>0.01186743728144379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02370008003906912</v>
+        <v>-0.009625865954827959</v>
       </c>
       <c r="C57">
-        <v>0.0215369021790978</v>
+        <v>-0.01036045230299471</v>
       </c>
       <c r="D57">
-        <v>-0.04082877913172336</v>
+        <v>-0.02374207377983135</v>
       </c>
       <c r="E57">
-        <v>0.001578226349659801</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02717574930572516</v>
+      </c>
+      <c r="F57">
+        <v>0.01552528003181686</v>
+      </c>
+      <c r="G57">
+        <v>0.02373722759026219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01055158495830813</v>
+        <v>-0.08107938007657373</v>
       </c>
       <c r="C58">
-        <v>0.08663663031919409</v>
+        <v>-0.03631279145250894</v>
       </c>
       <c r="D58">
-        <v>-0.09633201126113523</v>
+        <v>-0.01806062638396138</v>
       </c>
       <c r="E58">
-        <v>0.2057152062313462</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9467491929509224</v>
+      </c>
+      <c r="F58">
+        <v>-0.2177738975018719</v>
+      </c>
+      <c r="G58">
+        <v>-0.006512271684003104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02870237101324347</v>
+        <v>-0.1590391316665865</v>
       </c>
       <c r="C59">
-        <v>0.2514539780501944</v>
+        <v>0.2118410811346153</v>
       </c>
       <c r="D59">
-        <v>0.1672921481788015</v>
+        <v>0.01580059491989097</v>
       </c>
       <c r="E59">
-        <v>0.007262965881323697</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.006471327536652871</v>
+      </c>
+      <c r="F59">
+        <v>0.004225198139029477</v>
+      </c>
+      <c r="G59">
+        <v>0.02180376221494257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.03269084793253595</v>
+        <v>-0.2874598471869755</v>
       </c>
       <c r="C60">
-        <v>0.1539129905264515</v>
+        <v>-0.09874262673305294</v>
       </c>
       <c r="D60">
-        <v>-0.08172555353269542</v>
+        <v>-0.01149277465530968</v>
       </c>
       <c r="E60">
-        <v>0.03740905746007137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.006781474571438423</v>
+      </c>
+      <c r="F60">
+        <v>0.3545093963393543</v>
+      </c>
+      <c r="G60">
+        <v>-0.1036890150425235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002983575007984399</v>
+        <v>-0.032695628751462</v>
       </c>
       <c r="C61">
-        <v>0.007007617255224714</v>
+        <v>-0.06535448890443599</v>
       </c>
       <c r="D61">
-        <v>-0.0643014775673761</v>
+        <v>-0.005626871581275368</v>
       </c>
       <c r="E61">
-        <v>0.001139758350278245</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01076635990172097</v>
+      </c>
+      <c r="F61">
+        <v>0.02468886857975772</v>
+      </c>
+      <c r="G61">
+        <v>0.0315856731719126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007186485214438975</v>
+        <v>-0.01236039819552296</v>
       </c>
       <c r="C63">
-        <v>0.007176911528388944</v>
+        <v>-0.02774378299027297</v>
       </c>
       <c r="D63">
-        <v>-0.005962567076021568</v>
+        <v>-0.008149931090491795</v>
       </c>
       <c r="E63">
-        <v>-0.009935150492925164</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.00386845705237697</v>
+      </c>
+      <c r="F63">
+        <v>-0.0121510618071774</v>
+      </c>
+      <c r="G63">
+        <v>0.04448625790228276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.00708879706698229</v>
+        <v>-0.05066495097400185</v>
       </c>
       <c r="C64">
-        <v>0.02682772925428176</v>
+        <v>-0.04125450571746736</v>
       </c>
       <c r="D64">
-        <v>-0.06144510583735901</v>
+        <v>-0.005642635173225268</v>
       </c>
       <c r="E64">
-        <v>0.008123153161267565</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.004481135434409494</v>
+      </c>
+      <c r="F64">
+        <v>0.00839509351709836</v>
+      </c>
+      <c r="G64">
+        <v>0.02938245643854773</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01752109835739564</v>
+        <v>-0.08116797121877395</v>
       </c>
       <c r="C65">
-        <v>0.02141434043726665</v>
+        <v>-0.0604959241356961</v>
       </c>
       <c r="D65">
-        <v>-0.0918805058036722</v>
+        <v>-0.01533393344436889</v>
       </c>
       <c r="E65">
-        <v>-0.008018925005631304</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01727591557820253</v>
+      </c>
+      <c r="F65">
+        <v>0.03399490443999108</v>
+      </c>
+      <c r="G65">
+        <v>0.01821903167186305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.00536063575358769</v>
+        <v>-0.04911265397177941</v>
       </c>
       <c r="C66">
-        <v>-0.01050674994033238</v>
+        <v>-0.1140142882945411</v>
       </c>
       <c r="D66">
-        <v>-0.1173244282868801</v>
+        <v>-0.01240492890362391</v>
       </c>
       <c r="E66">
-        <v>0.01808126808915733</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02952495278055304</v>
+      </c>
+      <c r="F66">
+        <v>0.0514373265255552</v>
+      </c>
+      <c r="G66">
+        <v>0.02792174534434374</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0005326060812787227</v>
+        <v>-0.05381968987392029</v>
       </c>
       <c r="C67">
-        <v>0.04610115988046379</v>
+        <v>-0.03189134923615809</v>
       </c>
       <c r="D67">
-        <v>-0.02618074038273982</v>
+        <v>0.005597634275490598</v>
       </c>
       <c r="E67">
-        <v>-0.003843113320254363</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.0002871696896545505</v>
+      </c>
+      <c r="F67">
+        <v>-0.005487672265705191</v>
+      </c>
+      <c r="G67">
+        <v>0.03923752224929682</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04698979508438637</v>
+        <v>-0.1389166094650363</v>
       </c>
       <c r="C68">
-        <v>0.2294146876069709</v>
+        <v>0.2691768723176278</v>
       </c>
       <c r="D68">
-        <v>0.156383106497848</v>
+        <v>-0.002519432549722745</v>
       </c>
       <c r="E68">
-        <v>0.01306393261257056</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.006515519742357439</v>
+      </c>
+      <c r="F68">
+        <v>-0.038044872187659</v>
+      </c>
+      <c r="G68">
+        <v>0.02467088092960187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.00324133227025237</v>
+        <v>-0.07643275169435225</v>
       </c>
       <c r="C69">
-        <v>0.03846691705043978</v>
+        <v>-0.0659101051357463</v>
       </c>
       <c r="D69">
-        <v>-0.05939149873558807</v>
+        <v>0.008769765259560618</v>
       </c>
       <c r="E69">
-        <v>-0.004837594081456656</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.0256091768171472</v>
+      </c>
+      <c r="F69">
+        <v>-0.03063914041680455</v>
+      </c>
+      <c r="G69">
+        <v>0.03935006896621177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.03338898850320582</v>
+        <v>-0.1354976533733556</v>
       </c>
       <c r="C71">
-        <v>0.1995640707640522</v>
+        <v>0.2342277253964233</v>
       </c>
       <c r="D71">
-        <v>0.14573530221572</v>
+        <v>0.006370551408045207</v>
       </c>
       <c r="E71">
-        <v>-0.001494651047791717</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02560590865398758</v>
+      </c>
+      <c r="F71">
+        <v>-0.006512264378999496</v>
+      </c>
+      <c r="G71">
+        <v>0.03742751401321071</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.001828955929645929</v>
+        <v>-0.08416583233307581</v>
       </c>
       <c r="C72">
-        <v>0.0463574454810169</v>
+        <v>-0.07350300999836409</v>
       </c>
       <c r="D72">
-        <v>-0.1311265895276436</v>
+        <v>0.008011547458202983</v>
       </c>
       <c r="E72">
-        <v>0.01762319263531424</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.004521333509112164</v>
+      </c>
+      <c r="F72">
+        <v>0.04148610003909409</v>
+      </c>
+      <c r="G72">
+        <v>0.01326206036102659</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.046819131046267</v>
+        <v>-0.3986856937740092</v>
       </c>
       <c r="C73">
-        <v>0.1868177406266515</v>
+        <v>-0.1114947999327171</v>
       </c>
       <c r="D73">
-        <v>-0.1618356226721008</v>
+        <v>-0.0175844862066302</v>
       </c>
       <c r="E73">
-        <v>0.0954412872115117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.05053747347629673</v>
+      </c>
+      <c r="F73">
+        <v>0.5422347708651873</v>
+      </c>
+      <c r="G73">
+        <v>-0.1852384181023856</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.0003406052708122755</v>
+        <v>-0.111502625462686</v>
       </c>
       <c r="C74">
-        <v>0.08495018587434415</v>
+        <v>-0.119144069980796</v>
       </c>
       <c r="D74">
-        <v>-0.1527918391075613</v>
+        <v>0.009524965977542562</v>
       </c>
       <c r="E74">
-        <v>0.007950261503488421</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01429482832714992</v>
+      </c>
+      <c r="F74">
+        <v>-0.06830750500094164</v>
+      </c>
+      <c r="G74">
+        <v>0.04734184971523136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.005100732788579571</v>
+        <v>-0.2498008024601002</v>
       </c>
       <c r="C75">
-        <v>0.1986720365076696</v>
+        <v>-0.1529078552286017</v>
       </c>
       <c r="D75">
-        <v>-0.278408435552631</v>
+        <v>0.03001653662845345</v>
       </c>
       <c r="E75">
-        <v>0.02726838162514676</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05265392381637259</v>
+      </c>
+      <c r="F75">
+        <v>-0.1857792177228004</v>
+      </c>
+      <c r="G75">
+        <v>-0.02775593904462171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.003292183332440811</v>
+        <v>-0.1260859701150639</v>
       </c>
       <c r="C76">
-        <v>0.1352544423922032</v>
+        <v>-0.1225592892629845</v>
       </c>
       <c r="D76">
-        <v>-0.2287065568148665</v>
+        <v>0.02054610967528549</v>
       </c>
       <c r="E76">
-        <v>-0.005917379594103877</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04929947954812715</v>
+      </c>
+      <c r="F76">
+        <v>-0.1180020409273158</v>
+      </c>
+      <c r="G76">
+        <v>0.02452734062915067</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01178126757190024</v>
+        <v>-0.06596607495169728</v>
       </c>
       <c r="C77">
-        <v>0.01620906635691929</v>
+        <v>-0.06030034998856899</v>
       </c>
       <c r="D77">
-        <v>-0.0513275118902354</v>
+        <v>-0.01241289368226711</v>
       </c>
       <c r="E77">
-        <v>0.006380154939368776</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.05016676456265282</v>
+      </c>
+      <c r="F77">
+        <v>0.01867932630379941</v>
+      </c>
+      <c r="G77">
+        <v>0.04725003214438877</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.003975508669464223</v>
+        <v>-0.04004720794294044</v>
       </c>
       <c r="C78">
-        <v>0.01075427706072426</v>
+        <v>-0.05110571966854152</v>
       </c>
       <c r="D78">
-        <v>-0.06599946502531848</v>
+        <v>-0.005935344057914341</v>
       </c>
       <c r="E78">
-        <v>-0.00118957160552636</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02204529441979668</v>
+      </c>
+      <c r="F78">
+        <v>0.04486966836103228</v>
+      </c>
+      <c r="G78">
+        <v>0.04005744594993876</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01604512780689821</v>
+        <v>-0.05400515882562667</v>
       </c>
       <c r="C80">
-        <v>0.1209099576534605</v>
+        <v>-0.06249090858963249</v>
       </c>
       <c r="D80">
-        <v>-0.1602130849735473</v>
+        <v>-0.01350081104576067</v>
       </c>
       <c r="E80">
-        <v>-0.9130125980378162</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03309999248938921</v>
+      </c>
+      <c r="F80">
+        <v>0.06772333871272652</v>
+      </c>
+      <c r="G80">
+        <v>0.8792840132522028</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.0041761009632355</v>
+        <v>-0.1459609589222609</v>
       </c>
       <c r="C81">
-        <v>0.1232434808866423</v>
+        <v>-0.09595909833767331</v>
       </c>
       <c r="D81">
-        <v>-0.1704320413183208</v>
+        <v>0.01517907639349609</v>
       </c>
       <c r="E81">
-        <v>0.006432160933571875</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.0296342693302698</v>
+      </c>
+      <c r="F81">
+        <v>-0.1215013143701405</v>
+      </c>
+      <c r="G81">
+        <v>0.02198377198641712</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.0944193170735796</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.05294076341559818</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.004566664613726352</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.07239066398208077</v>
+      </c>
+      <c r="F82">
+        <v>-0.007396288562041745</v>
+      </c>
+      <c r="G82">
+        <v>0.01064447427039851</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006801298809204087</v>
+        <v>-0.03158465100162788</v>
       </c>
       <c r="C83">
-        <v>0.02660634191341195</v>
+        <v>-0.02023096992019889</v>
       </c>
       <c r="D83">
-        <v>-0.02282945993367764</v>
+        <v>-0.005193786942651933</v>
       </c>
       <c r="E83">
-        <v>0.003397129240464363</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02547533105303477</v>
+      </c>
+      <c r="F83">
+        <v>0.02210622990839146</v>
+      </c>
+      <c r="G83">
+        <v>0.02826633832134788</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01144044326482068</v>
+        <v>-0.2240478229017803</v>
       </c>
       <c r="C85">
-        <v>0.1506287384096237</v>
+        <v>-0.151871818724619</v>
       </c>
       <c r="D85">
-        <v>-0.267074633251044</v>
+        <v>0.01840557412923578</v>
       </c>
       <c r="E85">
-        <v>0.02968485134424192</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09463451749619985</v>
+      </c>
+      <c r="F85">
+        <v>-0.1673248987581243</v>
+      </c>
+      <c r="G85">
+        <v>-0.05029642452369047</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006797249400899273</v>
+        <v>-0.009537460177335019</v>
       </c>
       <c r="C86">
-        <v>0.02557141287011773</v>
+        <v>-0.0143931588883085</v>
       </c>
       <c r="D86">
-        <v>-0.006968010778320729</v>
+        <v>-0.01010936476406461</v>
       </c>
       <c r="E86">
-        <v>0.02089113148698738</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03363028496330666</v>
+      </c>
+      <c r="F86">
+        <v>0.03812738691428653</v>
+      </c>
+      <c r="G86">
+        <v>0.0662316137173151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.0073956408764976</v>
+        <v>-0.01856779914392061</v>
       </c>
       <c r="C87">
-        <v>0.0119190252744619</v>
+        <v>-0.02582573758883351</v>
       </c>
       <c r="D87">
-        <v>-0.04028188969929927</v>
+        <v>-0.01121801936438873</v>
       </c>
       <c r="E87">
-        <v>0.0005997289832084915</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08318093652720014</v>
+      </c>
+      <c r="F87">
+        <v>0.03101424306994784</v>
+      </c>
+      <c r="G87">
+        <v>0.05584101879907641</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02663239937673835</v>
+        <v>-0.0886976599944747</v>
       </c>
       <c r="C88">
-        <v>0.038256674005228</v>
+        <v>-0.06364980465177811</v>
       </c>
       <c r="D88">
-        <v>-0.03229780591935653</v>
+        <v>-0.0230562937541677</v>
       </c>
       <c r="E88">
-        <v>0.003353513859229467</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01279011593193654</v>
+      </c>
+      <c r="F88">
+        <v>-0.009324170292843522</v>
+      </c>
+      <c r="G88">
+        <v>0.0350669778152033</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.06312640015928112</v>
+        <v>-0.2256465481188798</v>
       </c>
       <c r="C89">
-        <v>0.3625981890100035</v>
+        <v>0.3647912544625111</v>
       </c>
       <c r="D89">
-        <v>0.2378141890193353</v>
+        <v>0.005599419099222856</v>
       </c>
       <c r="E89">
-        <v>0.02240903923274638</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02029772548684926</v>
+      </c>
+      <c r="F89">
+        <v>-0.02346277276455669</v>
+      </c>
+      <c r="G89">
+        <v>0.03824565721895433</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.0482862472941457</v>
+        <v>-0.1978900226491528</v>
       </c>
       <c r="C90">
-        <v>0.2818502978172187</v>
+        <v>0.3278167376496955</v>
       </c>
       <c r="D90">
-        <v>0.2213457406624295</v>
+        <v>0.009544362225984907</v>
       </c>
       <c r="E90">
-        <v>0.02128777625071341</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.02077751871761643</v>
+      </c>
+      <c r="F90">
+        <v>-0.04427788292482985</v>
+      </c>
+      <c r="G90">
+        <v>0.008263725732113996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.0008155924076325264</v>
+        <v>-0.1998810551664916</v>
       </c>
       <c r="C91">
-        <v>0.1593070471409573</v>
+        <v>-0.1399067265148113</v>
       </c>
       <c r="D91">
-        <v>-0.2392982179700516</v>
+        <v>0.02385972043230544</v>
       </c>
       <c r="E91">
-        <v>0.01112479508759268</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06926496026784652</v>
+      </c>
+      <c r="F91">
+        <v>-0.1596487923425875</v>
+      </c>
+      <c r="G91">
+        <v>0.01228154385406834</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.01383917076304599</v>
+        <v>-0.2050639580678632</v>
       </c>
       <c r="C92">
-        <v>0.3204165889512762</v>
+        <v>0.2591789281790462</v>
       </c>
       <c r="D92">
-        <v>0.08966329253862444</v>
+        <v>0.04733823558075416</v>
       </c>
       <c r="E92">
-        <v>0.01592269295060263</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.0002224974097623044</v>
+      </c>
+      <c r="F92">
+        <v>-0.09215445306005191</v>
+      </c>
+      <c r="G92">
+        <v>0.07310940040079547</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.0459292035528002</v>
+        <v>-0.2283991819531426</v>
       </c>
       <c r="C93">
-        <v>0.3181288388360008</v>
+        <v>0.3290752314666184</v>
       </c>
       <c r="D93">
-        <v>0.2170109127718427</v>
+        <v>0.01715433580012754</v>
       </c>
       <c r="E93">
-        <v>0.04697838717168357</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.00558957677553239</v>
+      </c>
+      <c r="F93">
+        <v>-0.0356559246961697</v>
+      </c>
+      <c r="G93">
+        <v>0.0004489991794760244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.02261433863075436</v>
+        <v>-0.3053683066641367</v>
       </c>
       <c r="C94">
-        <v>0.1980762415949536</v>
+        <v>-0.1889762205105724</v>
       </c>
       <c r="D94">
-        <v>-0.257554898273139</v>
+        <v>0.01532733458365684</v>
       </c>
       <c r="E94">
-        <v>0.05942755253910746</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1494616435807495</v>
+      </c>
+      <c r="F94">
+        <v>-0.4989521980439034</v>
+      </c>
+      <c r="G94">
+        <v>-0.1462083528017978</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.005011124720529556</v>
+        <v>-0.08413492178956243</v>
       </c>
       <c r="C95">
-        <v>0.04788572206083035</v>
+        <v>-0.0664973343873031</v>
       </c>
       <c r="D95">
-        <v>-0.0921034391077037</v>
+        <v>0.007847545551906259</v>
       </c>
       <c r="E95">
-        <v>0.1124504562869215</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06536203513447153</v>
+      </c>
+      <c r="F95">
+        <v>0.1578236350264118</v>
+      </c>
+      <c r="G95">
+        <v>-0.07434866276225209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.007569720408476332</v>
+        <v>-0.1982414053218317</v>
       </c>
       <c r="C98">
-        <v>0.159732563543412</v>
+        <v>-0.04455648435344188</v>
       </c>
       <c r="D98">
-        <v>-0.120491139461763</v>
+        <v>0.01394259354092803</v>
       </c>
       <c r="E98">
-        <v>0.05474422499786145</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06284867610696131</v>
+      </c>
+      <c r="F98">
+        <v>0.2503631762578409</v>
+      </c>
+      <c r="G98">
+        <v>-0.03989008278330698</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.00705424109126645</v>
+        <v>-0.01055492678618279</v>
       </c>
       <c r="C101">
-        <v>0.01653937674206801</v>
+        <v>-0.01994277071588806</v>
       </c>
       <c r="D101">
-        <v>-0.01253340125621711</v>
+        <v>-0.007301833223933237</v>
       </c>
       <c r="E101">
-        <v>-0.008009900301185894</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.00726157371197868</v>
+      </c>
+      <c r="F101">
+        <v>-0.009930094096106033</v>
+      </c>
+      <c r="G101">
+        <v>0.04009152032515684</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01520268977497518</v>
+        <v>-0.1200840873150032</v>
       </c>
       <c r="C102">
-        <v>0.09028862007843992</v>
+        <v>-0.08475076124734619</v>
       </c>
       <c r="D102">
-        <v>-0.1313144370562938</v>
+        <v>-0.001408477267011036</v>
       </c>
       <c r="E102">
-        <v>0.01424222161389171</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.02905780061785356</v>
+      </c>
+      <c r="F102">
+        <v>-0.03662196362542083</v>
+      </c>
+      <c r="G102">
+        <v>-0.0005933133091440756</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001660660249900351</v>
+        <v>-0.003705651120102334</v>
       </c>
       <c r="C103">
-        <v>0.0130606123615763</v>
+        <v>-0.004726646031658116</v>
       </c>
       <c r="D103">
-        <v>-0.02579792894374466</v>
+        <v>-0.0003326686703796037</v>
       </c>
       <c r="E103">
-        <v>-0.01406070277050429</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.002420668979935607</v>
+      </c>
+      <c r="F103">
+        <v>-0.008468116635612599</v>
+      </c>
+      <c r="G103">
+        <v>0.01721146700477041</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9826893271591497</v>
+        <v>-0.02948949275462452</v>
       </c>
       <c r="C104">
-        <v>-0.1253733313924031</v>
+        <v>0.03937536206632805</v>
       </c>
       <c r="D104">
-        <v>0.007302677554460358</v>
+        <v>-0.9871620911990829</v>
       </c>
       <c r="E104">
-        <v>-0.02571428926932918</v>
+        <v>0.04147695697067638</v>
+      </c>
+      <c r="F104">
+        <v>-0.04404192001289957</v>
+      </c>
+      <c r="G104">
+        <v>-0.01010621168330962</v>
       </c>
     </row>
   </sheetData>
